--- a/Story1/2024 Electoral College Results.xlsx
+++ b/Story1/2024 Electoral College Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandersimon/Documents/Masters Programs/CUNY/Courses/DATA608 Knowledge &amp; Visual Analytics (Spring 2025)/Assignments/Story1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C63D1B4-54E0-004F-84C3-EB2C55494B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968CF62B-326B-A142-8808-3DE5C4117224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13580" yWindow="7900" windowWidth="26040" windowHeight="14940" xr2:uid="{20DDA71C-836C-9B42-B943-3FDF86043F1E}"/>
+    <workbookView xWindow="15660" yWindow="5920" windowWidth="26040" windowHeight="14940" xr2:uid="{20DDA71C-836C-9B42-B943-3FDF86043F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,6 +103,9 @@
     <t>Missouri</t>
   </si>
   <si>
+    <t>Montana</t>
+  </si>
+  <si>
     <t>Nevada</t>
   </si>
   <si>
@@ -163,9 +166,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>Democratic</t>
-  </si>
-  <si>
     <t>Republican</t>
   </si>
   <si>
@@ -193,13 +193,13 @@
     <t>Louisia0</t>
   </si>
   <si>
-    <t>Monta0</t>
-  </si>
-  <si>
     <t>North Caroli0</t>
   </si>
   <si>
     <t>South Caroli0</t>
+  </si>
+  <si>
+    <t>Democrat</t>
   </si>
 </sst>
 </file>
@@ -600,13 +600,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>43</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32">
         <v>14</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>28</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>17</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>7</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B40">
         <v>19</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>9</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B44">
         <v>11</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B45">
         <v>40</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>13</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B52">
         <v>3</v>

--- a/Story1/2024 Electoral College Results.xlsx
+++ b/Story1/2024 Electoral College Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandersimon/Documents/Masters Programs/CUNY/Courses/DATA608 Knowledge &amp; Visual Analytics (Spring 2025)/Assignments/Story1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968CF62B-326B-A142-8808-3DE5C4117224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DE7A54-EDB6-E04D-86E5-4B8B6DB7E7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15660" yWindow="5920" windowWidth="26040" windowHeight="14940" xr2:uid="{20DDA71C-836C-9B42-B943-3FDF86043F1E}"/>
   </bookViews>
@@ -184,22 +184,22 @@
     <t>Oregon</t>
   </si>
   <si>
-    <t>Arizo0</t>
-  </si>
-  <si>
     <t>India0</t>
   </si>
   <si>
-    <t>Louisia0</t>
-  </si>
-  <si>
-    <t>North Caroli0</t>
-  </si>
-  <si>
-    <t>South Caroli0</t>
-  </si>
-  <si>
     <t>Democrat</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC5F174-E5BF-0246-91A1-8297DF217020}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
@@ -606,7 +608,7 @@
         <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>43</v>
@@ -642,7 +644,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -810,7 +812,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -866,7 +868,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1076,7 +1078,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -1174,7 +1176,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>9</v>

--- a/Story1/2024 Electoral College Results.xlsx
+++ b/Story1/2024 Electoral College Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandersimon/Documents/Masters Programs/CUNY/Courses/DATA608 Knowledge &amp; Visual Analytics (Spring 2025)/Assignments/Story1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DE7A54-EDB6-E04D-86E5-4B8B6DB7E7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3DF8C7-BD44-4449-83F7-147CFB141434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15660" yWindow="5920" windowWidth="26040" windowHeight="14940" xr2:uid="{20DDA71C-836C-9B42-B943-3FDF86043F1E}"/>
   </bookViews>
@@ -184,9 +184,6 @@
     <t>Oregon</t>
   </si>
   <si>
-    <t>India0</t>
-  </si>
-  <si>
     <t>Democrat</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Indiana</t>
   </si>
 </sst>
 </file>
@@ -587,9 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC5F174-E5BF-0246-91A1-8297DF217020}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
@@ -608,7 +606,7 @@
         <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>43</v>
@@ -644,7 +642,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -812,7 +810,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -868,7 +866,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1078,7 +1076,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35">
         <v>16</v>
@@ -1176,7 +1174,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>9</v>
